--- a/Data_IEEE_24.xlsx
+++ b/Data_IEEE_24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berne\Dropbox\Lehrstuhl Energiewirtschaft\TEP\IEEE 24 node System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\Dropbox\Lehrstuhl Energiewirtschaft\TEP\IEEE 24 node System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB435E-D86A-4704-9C3B-C382FD44461A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A617284-C4A3-4FDF-AEDD-73EF62EEB422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{67439250-8D29-4B77-BB37-656BF7DAD5E4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="147">
   <si>
     <t>Pi_max</t>
   </si>
@@ -421,41 +421,68 @@
     <t>l60</t>
   </si>
   <si>
-    <t>l61</t>
-  </si>
-  <si>
-    <t>l62</t>
-  </si>
-  <si>
-    <t>l63</t>
-  </si>
-  <si>
-    <t>l64</t>
-  </si>
-  <si>
-    <t>l65</t>
-  </si>
-  <si>
-    <t>l66</t>
-  </si>
-  <si>
-    <t>l67</t>
-  </si>
-  <si>
-    <t>l68</t>
-  </si>
-  <si>
     <t>Investment line costs</t>
   </si>
   <si>
     <t>Inv_costs</t>
+  </si>
+  <si>
+    <t>n25</t>
+  </si>
+  <si>
+    <t>n26</t>
+  </si>
+  <si>
+    <t>n27</t>
+  </si>
+  <si>
+    <t>n29</t>
+  </si>
+  <si>
+    <t>n30</t>
+  </si>
+  <si>
+    <t>n28</t>
+  </si>
+  <si>
+    <t>n31</t>
+  </si>
+  <si>
+    <t>n32</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>Pi_max original</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>cap_orig</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Map_prosp_send_lines_nodes</t>
+  </si>
+  <si>
+    <t>Map_prosp_res_lines_nodes</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Pi_init orig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +503,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +556,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -517,14 +593,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +631,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Notiz" xfId="2" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,15 +957,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5210EF34-7FD4-48B9-AA4B-40D7317C39F5}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P5"/>
+      <selection activeCell="W2" sqref="W2:W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,13 +1025,26 @@
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="2">
-        <v>152</v>
+        <f>V2+W2</f>
+        <v>352</v>
       </c>
       <c r="C2" s="2">
         <v>30.4</v>
@@ -962,7 +1086,8 @@
         <v>1430.4</v>
       </c>
       <c r="P2" s="2">
-        <v>76</v>
+        <f>Y2+Z2</f>
+        <v>176</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -970,13 +1095,26 @@
       <c r="R2" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>152</v>
+      </c>
+      <c r="W2">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="2">
-        <v>152</v>
+        <f t="shared" ref="B3:B14" si="0">V3+W3</f>
+        <v>352</v>
       </c>
       <c r="C3" s="2">
         <v>30.4</v>
@@ -1018,7 +1156,8 @@
         <v>1430.4</v>
       </c>
       <c r="P3" s="2">
-        <v>76</v>
+        <f t="shared" ref="P3:P14" si="1">Y3+Z3</f>
+        <v>176</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -1026,13 +1165,26 @@
       <c r="R3" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>152</v>
+      </c>
+      <c r="W3">
+        <v>200</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="2">
-        <v>350</v>
+        <f t="shared" si="0"/>
+        <v>550</v>
       </c>
       <c r="C4" s="2">
         <v>75</v>
@@ -1073,7 +1225,8 @@
       <c r="O4" s="2">
         <v>1725</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="2">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="Q4" s="2">
@@ -1082,13 +1235,26 @@
       <c r="R4" s="2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>350</v>
+      </c>
+      <c r="W4">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="2">
-        <v>591</v>
+        <f t="shared" si="0"/>
+        <v>791</v>
       </c>
       <c r="C5" s="2">
         <v>206.85</v>
@@ -1129,7 +1295,8 @@
       <c r="O5" s="2">
         <v>2056.6999999999998</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="Q5" s="2">
@@ -1138,13 +1305,26 @@
       <c r="R5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>591</v>
+      </c>
+      <c r="W5">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>210</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="2">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -1186,6 +1366,7 @@
         <v>437</v>
       </c>
       <c r="P6" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
@@ -1194,13 +1375,26 @@
       <c r="R6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>60</v>
+      </c>
+      <c r="W6">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="2">
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>355</v>
       </c>
       <c r="C7" s="2">
         <v>54.25</v>
@@ -1242,6 +1436,7 @@
         <v>312</v>
       </c>
       <c r="P7" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
@@ -1250,13 +1445,26 @@
       <c r="R7" s="2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>155</v>
+      </c>
+      <c r="W7">
+        <v>200</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="2">
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>355</v>
       </c>
       <c r="C8" s="2">
         <v>54.25</v>
@@ -1298,7 +1506,8 @@
         <v>312</v>
       </c>
       <c r="P8" s="2">
-        <v>124</v>
+        <f t="shared" si="1"/>
+        <v>134</v>
       </c>
       <c r="Q8" s="2">
         <v>1</v>
@@ -1306,13 +1515,26 @@
       <c r="R8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>155</v>
+      </c>
+      <c r="W8">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>124</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="2">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -1354,6 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="Q9" s="2">
@@ -1362,13 +1585,26 @@
       <c r="R9" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>400</v>
+      </c>
+      <c r="W9">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="2">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -1410,7 +1646,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>260</v>
       </c>
       <c r="Q10" s="2">
         <v>1</v>
@@ -1418,13 +1655,26 @@
       <c r="R10" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>400</v>
+      </c>
+      <c r="W10">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="2">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="C11" s="2">
         <v>300</v>
@@ -1448,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1466,7 +1716,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>260</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
@@ -1474,13 +1725,26 @@
       <c r="R11" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>300</v>
+      </c>
+      <c r="W11">
+        <v>200</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="2">
-        <v>310</v>
+        <f t="shared" si="0"/>
+        <v>510</v>
       </c>
       <c r="C12" s="2">
         <v>108.5</v>
@@ -1522,7 +1786,8 @@
         <v>624</v>
       </c>
       <c r="P12" s="2">
-        <v>248</v>
+        <f t="shared" si="1"/>
+        <v>278</v>
       </c>
       <c r="Q12" s="2">
         <v>1</v>
@@ -1530,13 +1795,26 @@
       <c r="R12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>310</v>
+      </c>
+      <c r="W12">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="2">
-        <v>350</v>
+        <f t="shared" si="0"/>
+        <v>550</v>
       </c>
       <c r="C13" s="2">
         <v>140</v>
@@ -1578,7 +1856,8 @@
         <v>2298</v>
       </c>
       <c r="P13" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="Q13" s="2">
         <v>1</v>
@@ -1586,8 +1865,78 @@
       <c r="R13" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>350</v>
+      </c>
+      <c r="W13">
+        <v>200</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <v>155</v>
+      </c>
+      <c r="G14" s="12">
+        <v>155</v>
+      </c>
+      <c r="H14" s="12">
+        <v>8</v>
+      </c>
+      <c r="I14" s="12">
+        <v>8</v>
+      </c>
+      <c r="J14" s="14">
+        <v>12.38</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12">
+        <v>312</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>155</v>
+      </c>
+      <c r="W14">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1611,6 +1960,12 @@
       </c>
       <c r="I15" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1622,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9E980A-6BAE-4840-B632-4AFE436386FD}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1990,7 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1646,13 +2001,13 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1663,20 +2018,27 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B3">
         <v>68.493150684931507</v>
       </c>
       <c r="C3">
+        <f>I3+J3</f>
         <v>175</v>
       </c>
       <c r="D3">
@@ -1685,15 +2047,22 @@
       <c r="F3">
         <v>1.46E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>4.4385264092321348</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C62" si="0">I4+J4</f>
         <v>175</v>
       </c>
       <c r="D4">
@@ -1702,15 +2071,22 @@
       <c r="F4">
         <v>0.2253</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4">
+        <v>175</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>11.025358324145534</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="D5">
@@ -1719,15 +2095,22 @@
       <c r="F5">
         <v>9.0700000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5">
+        <v>350</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>7.3746312684365787</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D6">
@@ -1736,15 +2119,22 @@
       <c r="F6">
         <v>0.1356</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I6">
+        <v>175</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>4.8780487804878048</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D7">
@@ -1753,15 +2143,22 @@
       <c r="F7">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I7">
+        <v>175</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>7.8678206136900082</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D8">
@@ -1770,15 +2167,22 @@
       <c r="F8">
         <v>0.12709999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I8">
+        <v>175</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B9">
         <v>11.904761904761903</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="D9">
@@ -1787,15 +2191,22 @@
       <c r="F9">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10">
         <v>9.0090090090090094</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D10">
@@ -1804,15 +2215,22 @@
       <c r="F10">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I10">
+        <v>175</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B11">
         <v>10.638297872340425</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="D11">
@@ -1821,15 +2239,22 @@
       <c r="F11">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="I11">
+        <v>350</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12">
         <v>15.576323987538942</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D12">
@@ -1838,15 +2263,22 @@
       <c r="F12">
         <v>6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12">
+        <v>175</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13">
         <v>15.337423312883438</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="D13">
@@ -1855,15 +2287,22 @@
       <c r="F13">
         <v>6.5199999999999994E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13">
+        <v>350</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B14">
         <v>5.6753688989784337</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D14">
@@ -1872,15 +2311,22 @@
       <c r="F14">
         <v>0.1762</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I14">
+        <v>175</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B15">
         <v>5.6753688989784337</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D15">
@@ -1889,15 +2335,22 @@
       <c r="F15">
         <v>0.1762</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I15">
+        <v>175</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B16">
         <v>11.904761904761903</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="D16">
@@ -1906,15 +2359,22 @@
       <c r="F16">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I16">
+        <v>400</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B17">
         <v>11.904761904761903</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="D17">
@@ -1923,15 +2383,22 @@
       <c r="F17">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I17">
+        <v>400</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B18">
         <v>11.904761904761903</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="D18">
@@ -1940,15 +2407,22 @@
       <c r="F18">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B19">
         <v>11.904761904761903</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="D19">
@@ -1957,15 +2431,22 @@
       <c r="F19">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19">
+        <v>400</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B20">
         <v>20.491803278688522</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D20">
@@ -1974,15 +2455,22 @@
       <c r="F20">
         <v>4.8800000000000003E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B21">
         <v>23.474178403755868</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D21">
@@ -1991,15 +2479,22 @@
       <c r="F21">
         <v>4.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B22">
         <v>20.491803278688522</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D22">
@@ -2008,15 +2503,22 @@
       <c r="F22">
         <v>4.8800000000000003E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B23">
         <v>10.152284263959391</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D23">
@@ -2025,15 +2527,22 @@
       <c r="F23">
         <v>9.8500000000000004E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B24">
         <v>11.312217194570135</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D24">
@@ -2042,15 +2551,22 @@
       <c r="F24">
         <v>8.8400000000000006E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B25">
         <v>16.835016835016834</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D25">
@@ -2059,15 +2575,22 @@
       <c r="F25">
         <v>5.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B26">
         <v>58.139534883720927</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D26">
@@ -2076,15 +2599,22 @@
       <c r="F26">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B27">
         <v>40.160642570281126</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="D27">
@@ -2093,15 +2623,22 @@
       <c r="F27">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B28">
         <v>18.903591682419659</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D28">
@@ -2110,15 +2647,22 @@
       <c r="F28">
         <v>5.2900000000000003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I28">
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B29">
         <v>38.022813688212928</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D29">
@@ -2127,15 +2671,22 @@
       <c r="F29">
         <v>2.63E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B30">
         <v>42.735042735042732</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D30">
@@ -2144,15 +2695,22 @@
       <c r="F30">
         <v>2.3400000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I30">
+        <v>500</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B31">
         <v>69.930069930069934</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D31">
@@ -2161,15 +2719,22 @@
       <c r="F31">
         <v>1.43E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B32">
         <v>9.3545369504209539</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D32">
@@ -2178,15 +2743,22 @@
       <c r="F32">
         <v>0.1069</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B33">
         <v>75.757575757575765</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="D33">
@@ -2195,15 +2767,22 @@
       <c r="F33">
         <v>1.32E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B34">
         <v>49.26108374384237</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="D34">
@@ -2212,15 +2791,22 @@
       <c r="F34">
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I34">
+        <v>1000</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B35">
         <v>89.285714285714292</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="D35">
@@ -2229,15 +2815,22 @@
       <c r="F35">
         <v>1.12E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B36">
         <v>14.450867052023122</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D36">
@@ -2246,515 +2839,661 @@
       <c r="F36">
         <v>6.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B37">
-        <v>68.493150684931507</v>
+        <f>1/F37</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="D37">
-        <f>C37*C37/B37</f>
-        <v>447.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="6">
+        <v>7.72</v>
+      </c>
+      <c r="F37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I37">
+        <v>175</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B38">
-        <v>4.4385264092321348</v>
+        <f t="shared" ref="B38:B62" si="1">1/F38</f>
+        <v>11.904761904761903</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <v>3.12</v>
+      </c>
+      <c r="F38">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I38">
+        <v>400</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>47.619047619047613</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="D38">
-        <f>C38*C38/B38</f>
-        <v>6899.8125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39">
-        <v>11.025358324145534</v>
-      </c>
-      <c r="C39">
-        <v>350</v>
-      </c>
       <c r="D39">
-        <f>C39*C39/B39</f>
-        <v>11110.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>10.82</v>
+      </c>
+      <c r="F39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>175</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B40">
-        <v>7.3746312684365787</v>
+        <f t="shared" si="1"/>
+        <v>11.904761904761903</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D40">
+        <v>3.21</v>
+      </c>
+      <c r="F40">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I40">
+        <v>400</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D41">
+        <v>8.76</v>
+      </c>
+      <c r="F41">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="D40">
-        <f>C40*C40/B40</f>
-        <v>4152.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41">
-        <v>4.8780487804878048</v>
-      </c>
-      <c r="C41">
+      <c r="D42">
+        <v>10.29</v>
+      </c>
+      <c r="F42">
+        <v>0.02</v>
+      </c>
+      <c r="I42">
         <v>175</v>
       </c>
-      <c r="D41">
-        <f>C41*C41/B41</f>
-        <v>6278.125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42">
-        <v>7.8678206136900082</v>
-      </c>
-      <c r="C42">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="D42">
-        <f>C42*C42/B42</f>
-        <v>3892.4375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43">
+      <c r="D43">
+        <v>8.24</v>
+      </c>
+      <c r="F43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I43">
+        <v>175</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>45.45454545454546</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D44">
+        <v>11.13</v>
+      </c>
+      <c r="F44">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>500</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D45">
+        <v>5.66</v>
+      </c>
+      <c r="F45">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I45">
+        <v>500</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>12.35</v>
+      </c>
+      <c r="F46">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I46">
+        <v>500</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D47">
+        <v>5.66</v>
+      </c>
+      <c r="F47">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>8.76</v>
+      </c>
+      <c r="F48">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I48">
+        <v>500</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D49">
+        <v>8.76</v>
+      </c>
+      <c r="F49">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I49">
+        <v>500</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D50">
+        <v>7.21</v>
+      </c>
+      <c r="F50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I50">
+        <v>500</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>7.21</v>
+      </c>
+      <c r="F51">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>5.66</v>
+      </c>
+      <c r="F52">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I52">
+        <v>500</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D53">
+        <v>5.66</v>
+      </c>
+      <c r="F53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I53">
+        <v>500</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D54">
+        <v>5.66</v>
+      </c>
+      <c r="F54">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I54">
+        <v>500</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
         <v>11.904761904761903</v>
       </c>
-      <c r="C43">
+      <c r="C55">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D43">
-        <f>C43*C43/B43</f>
-        <v>13440.000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44">
-        <v>9.0090090090090094</v>
-      </c>
-      <c r="C44">
-        <v>175</v>
-      </c>
-      <c r="D44">
-        <f>C44*C44/B44</f>
-        <v>3399.375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45">
-        <v>10.638297872340425</v>
-      </c>
-      <c r="C45">
-        <v>350</v>
-      </c>
-      <c r="D45">
-        <f>C45*C45/B45</f>
-        <v>11515</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46">
-        <v>15.576323987538942</v>
-      </c>
-      <c r="C46">
-        <v>175</v>
-      </c>
-      <c r="D46">
-        <f>C46*C46/B46</f>
-        <v>1966.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47">
-        <v>15.337423312883438</v>
-      </c>
-      <c r="C47">
-        <v>350</v>
-      </c>
-      <c r="D47">
-        <f>C47*C47/B47</f>
-        <v>7986.9999999999991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48">
-        <v>5.6753688989784337</v>
-      </c>
-      <c r="C48">
-        <v>175</v>
-      </c>
-      <c r="D48">
-        <f>C48*C48/B48</f>
-        <v>5396.125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49">
-        <v>5.6753688989784337</v>
-      </c>
-      <c r="C49">
-        <v>175</v>
-      </c>
-      <c r="D49">
-        <f>C49*C49/B49</f>
-        <v>5396.125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50">
+      <c r="D55">
+        <v>3.12</v>
+      </c>
+      <c r="F55">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I55">
+        <v>400</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D56">
+        <v>5.66</v>
+      </c>
+      <c r="F56">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>8.76</v>
+      </c>
+      <c r="F57">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I57">
+        <v>500</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>5.66</v>
+      </c>
+      <c r="F58">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I58">
+        <v>500</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D59">
+        <v>7.21</v>
+      </c>
+      <c r="F59">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I59">
+        <v>500</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
         <v>11.904761904761903</v>
       </c>
-      <c r="C50">
+      <c r="C60">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D50">
-        <f>C50*C50/B50</f>
-        <v>13440.000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51">
-        <v>11.904761904761903</v>
-      </c>
-      <c r="C51">
+      <c r="D60">
+        <v>3.12</v>
+      </c>
+      <c r="F60">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I60">
         <v>400</v>
       </c>
-      <c r="D51">
-        <f>C51*C51/B51</f>
-        <v>13440.000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52">
-        <v>11.904761904761903</v>
-      </c>
-      <c r="C52">
-        <v>400</v>
-      </c>
-      <c r="D52">
-        <f>C52*C52/B52</f>
-        <v>13440.000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53">
-        <v>11.904761904761903</v>
-      </c>
-      <c r="C53">
-        <v>400</v>
-      </c>
-      <c r="D53">
-        <f>C53*C53/B53</f>
-        <v>13440.000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54">
-        <v>20.491803278688522</v>
-      </c>
-      <c r="C54">
-        <v>500</v>
-      </c>
-      <c r="D54">
-        <f>C54*C54/B54</f>
-        <v>12200.000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55">
-        <v>23.474178403755868</v>
-      </c>
-      <c r="C55">
-        <v>500</v>
-      </c>
-      <c r="D55">
-        <f>C55*C55/B55</f>
-        <v>10650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56">
-        <v>20.491803278688522</v>
-      </c>
-      <c r="C56">
-        <v>500</v>
-      </c>
-      <c r="D56">
-        <f>C56*C56/B56</f>
-        <v>12200.000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57">
-        <v>10.152284263959391</v>
-      </c>
-      <c r="C57">
-        <v>500</v>
-      </c>
-      <c r="D57">
-        <f>C57*C57/B57</f>
-        <v>24625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58">
-        <v>11.312217194570135</v>
-      </c>
-      <c r="C58">
-        <v>500</v>
-      </c>
-      <c r="D58">
-        <f>C58*C58/B58</f>
-        <v>22100.000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59">
-        <v>16.835016835016834</v>
-      </c>
-      <c r="C59">
-        <v>500</v>
-      </c>
-      <c r="D59">
-        <f>C59*C59/B59</f>
-        <v>14850.000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60">
-        <v>58.139534883720927</v>
-      </c>
-      <c r="C60">
-        <v>500</v>
-      </c>
-      <c r="D60">
-        <f>C60*C60/B60</f>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B61">
-        <v>40.160642570281126</v>
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
       </c>
       <c r="C61">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="D61">
-        <f>C61*C61/B61</f>
-        <v>24900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <v>7.21</v>
+      </c>
+      <c r="F61">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I61">
+        <v>500</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B62">
-        <v>18.903591682419659</v>
+        <f t="shared" si="1"/>
+        <v>58.823529411764703</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="D62">
-        <f>C62*C62/B62</f>
-        <v>13225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63">
-        <v>38.022813688212928</v>
-      </c>
-      <c r="C63">
-        <v>500</v>
-      </c>
-      <c r="D63">
-        <f>C63*C63/B63</f>
-        <v>6575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64">
-        <v>42.735042735042732</v>
-      </c>
-      <c r="C64">
-        <v>500</v>
-      </c>
-      <c r="D64">
-        <f>C64*C64/B64</f>
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65">
-        <v>69.930069930069934</v>
-      </c>
-      <c r="C65">
-        <v>500</v>
-      </c>
-      <c r="D65">
-        <f>C65*C65/B65</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66">
-        <v>9.3545369504209539</v>
-      </c>
-      <c r="C66">
-        <v>500</v>
-      </c>
-      <c r="D66">
-        <f>C66*C66/B66</f>
-        <v>26725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67">
-        <v>75.757575757575765</v>
-      </c>
-      <c r="C67">
-        <v>1000</v>
-      </c>
-      <c r="D67">
-        <f>C67*C67/B67</f>
-        <v>13199.999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68">
-        <v>49.26108374384237</v>
-      </c>
-      <c r="C68">
-        <v>1000</v>
-      </c>
-      <c r="D68">
-        <f>C68*C68/B68</f>
-        <v>20299.999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69">
-        <v>89.285714285714292</v>
-      </c>
-      <c r="C69">
-        <v>1000</v>
-      </c>
-      <c r="D69">
-        <f>C69*C69/B69</f>
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70">
-        <v>14.450867052023122</v>
-      </c>
-      <c r="C70">
-        <v>500</v>
-      </c>
-      <c r="D70">
-        <f>C70*C70/B70</f>
-        <v>17300</v>
+        <v>8.76</v>
+      </c>
+      <c r="F62">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I62">
+        <v>500</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +3504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2969382-6EAC-472A-8D4D-A852C7B64DBE}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,23 +3515,33 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+      <c r="J1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="M1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2811,8 +3560,20 @@
       <c r="H2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2831,8 +3592,20 @@
       <c r="H3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2851,8 +3624,20 @@
       <c r="H4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2871,8 +3656,20 @@
       <c r="H5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2891,8 +3688,20 @@
       <c r="H6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2911,8 +3720,20 @@
       <c r="H7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -2931,8 +3752,20 @@
       <c r="H8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2951,8 +3784,20 @@
       <c r="H9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2971,8 +3816,20 @@
       <c r="H10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -2991,8 +3848,20 @@
       <c r="H11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3011,8 +3880,20 @@
       <c r="H12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3031,8 +3912,26 @@
       <c r="H13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
@@ -3045,8 +3944,20 @@
       <c r="H14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -3059,8 +3970,20 @@
       <c r="H15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>41</v>
       </c>
@@ -3073,8 +3996,20 @@
       <c r="H16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>42</v>
       </c>
@@ -3087,8 +4022,20 @@
       <c r="H17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>43</v>
       </c>
@@ -3101,8 +4048,20 @@
       <c r="H18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>44</v>
       </c>
@@ -3115,8 +4074,20 @@
       <c r="H19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>45</v>
       </c>
@@ -3129,8 +4100,20 @@
       <c r="H20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>46</v>
       </c>
@@ -3143,8 +4126,20 @@
       <c r="H21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>47</v>
       </c>
@@ -3157,8 +4152,20 @@
       <c r="H22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>48</v>
       </c>
@@ -3171,8 +4178,20 @@
       <c r="H23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>49</v>
       </c>
@@ -3185,8 +4204,20 @@
       <c r="H24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>50</v>
       </c>
@@ -3199,8 +4230,20 @@
       <c r="H25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>51</v>
       </c>
@@ -3213,8 +4256,20 @@
       <c r="H26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>52</v>
       </c>
@@ -3227,8 +4282,20 @@
       <c r="H27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>53</v>
       </c>
@@ -3242,7 +4309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>54</v>
       </c>
@@ -3256,7 +4323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>55</v>
       </c>
@@ -3270,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>56</v>
       </c>
@@ -3284,7 +4351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>57</v>
       </c>
@@ -3340,487 +4407,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s">
-        <v>120</v>
-      </c>
-      <c r="H54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>122</v>
-      </c>
-      <c r="H56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
